--- a/listWord.xlsx
+++ b/listWord.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="59">
   <si>
     <t>a</t>
   </si>
@@ -70,6 +70,130 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>kat</t>
+  </si>
+  <si>
+    <t>cat is a cute animal</t>
+  </si>
+  <si>
+    <t>mèo</t>
+  </si>
+  <si>
+    <t>cat</t>
+  </si>
+  <si>
+    <t>æb.strækt</t>
+  </si>
+  <si>
+    <t>trừu tượng</t>
+  </si>
+  <si>
+    <t>animal is an abstract  class</t>
+  </si>
+  <si>
+    <t>abstract</t>
+  </si>
+  <si>
+    <t>interface</t>
+  </si>
+  <si>
+    <t>giao diện</t>
+  </si>
+  <si>
+    <t>ˈin(t)ərˌfās</t>
+  </si>
+  <si>
+    <t>bird class can implement Flyable interface</t>
+  </si>
+  <si>
+    <t>aggregate</t>
+  </si>
+  <si>
+    <t>tập hợp</t>
+  </si>
+  <si>
+    <t>động từ</t>
+  </si>
+  <si>
+    <t>compose</t>
+  </si>
+  <si>
+    <t>tạo thành</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>lớp</t>
+  </si>
+  <si>
+    <t>object</t>
+  </si>
+  <si>
+    <t>đối tượng</t>
+  </si>
+  <si>
+    <t>all things can become object</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+the butterflies aggregate in dense groups</t>
+  </si>
+  <si>
+    <t>static</t>
+  </si>
+  <si>
+    <t>tĩnh</t>
+  </si>
+  <si>
+    <t>static variable is belong to class, not object</t>
+  </si>
+  <si>
+    <t>final</t>
+  </si>
+  <si>
+    <t>cuối cùng</t>
+  </si>
+  <si>
+    <t>he is the final one leaved the train</t>
+  </si>
+  <si>
+    <t>incredible</t>
+  </si>
+  <si>
+    <t>phi thường</t>
+  </si>
+  <si>
+    <t>Java is so incredible</t>
+  </si>
+  <si>
+    <t>wonderful</t>
+  </si>
+  <si>
+    <t>tuyệt vời</t>
+  </si>
+  <si>
+    <t>she is so wonderful</t>
+  </si>
+  <si>
+    <t>mother</t>
+  </si>
+  <si>
+    <t>mẹ</t>
+  </si>
+  <si>
+    <t>my mother is so beautiful</t>
+  </si>
+  <si>
+    <t>father</t>
+  </si>
+  <si>
+    <t>bố</t>
+  </si>
+  <si>
+    <t>my father is so wonderful</t>
   </si>
 </sst>
 </file>
@@ -111,9 +235,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,15 +542,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F5"/>
+  <dimension ref="A2:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+    <col min="5" max="5" width="39.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -495,6 +623,270 @@
       </c>
       <c r="F5" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="str">
+        <f>A9</f>
+        <v>aggregate</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" ref="C10:C25" si="0">A10</f>
+        <v>compose</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>class</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>object</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>static</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>final</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>incredible</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>wonderful</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>mother</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>father</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
